--- a/Report/요구사항 명세서.xlsx
+++ b/Report/요구사항 명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Playdata\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Personal\team_project\4th_team_project\SKN06-4th-1Team\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD339667-17FD-4FA8-9EAF-6FBFC19CDB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9721B315-90A4-4B40-8F09-F616AA793C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="1476" windowWidth="17280" windowHeight="10128" xr2:uid="{8820E4D4-001E-4C5F-AE79-62163CA405E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8820E4D4-001E-4C5F-AE79-62163CA405E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>기능유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,1420 @@
   </si>
   <si>
     <t>채팅에 배경화면을 깔아 심미적인 요소를 자극해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 접근성이 좋도록 기능 디자인이 직관적이어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학습된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바탕으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물어본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정확한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> context(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바탕으로만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대답해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스타일은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간결하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논리적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리해햐 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이해하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최신의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정확한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노력해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체계적이고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비전문가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이해하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉽게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불필요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공하면 안됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다국어(한,중,일,영) 사용자 질의에 대해 질의 의도를 분석하고 요청한 언어로 답변을 제공해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용한 뒤에 사용 피드백을 위한 설문조사가 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인사말</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Fallback message(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시나리오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이탈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메세지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t>해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 없이도 사용이 가능하되 / 로그인을 하게 되면 기존 대화내용을 불러올 수 있게 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 입력한 지역 정보를 바탕으로 답변을 작성할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비속어, 장난 등 대화본래의 목적에서 벗어난 대화에 대응할 수 있는 기능 제공해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +1530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -131,6 +1545,60 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +1631,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,24 +1976,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A745CE23-1DA1-40C8-AFA1-162B7F83FDD6}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.88671875" style="1" customWidth="1"/>
     <col min="5" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,42 +2016,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8">
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8">
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8">
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8">
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8">
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8">
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8">
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -585,14 +2062,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8">
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8">
       <c r="D11" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Report/요구사항 명세서.xlsx
+++ b/Report/요구사항 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Personal\team_project\4th_team_project\SKN06-4th-1Team\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9721B315-90A4-4B40-8F09-F616AA793C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DE5556-B700-4994-B342-BCF6D03CF4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8820E4D4-001E-4C5F-AE79-62163CA405E7}"/>
   </bookViews>
@@ -66,48 +66,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대화 중에 채팅 히스토리가 남아야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 가입자가 이전에 대화한 대화 히스토리가 남아있어야함 (재 로그인 시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화 히스토리에 대한 각 새션이 나뉘어야함 (like GP□…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 질의응답을 위한 챗봇 기능이 있어야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동사무소 직원과 같은 신뢰감 있고, 필요한 내용만 알려주는 대화 스타일을 구현해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변을 핵심만 간략하게 해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 답변 시간이 5초 이내이어야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일, 태블릿, PC 등 다양한 기기에서 최적화된 화면을 제공해야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반응형 디자인</t>
   </si>
   <si>
     <t>비기능</t>
   </si>
   <si>
-    <t>회원가입 시에 이미지 등록 기능을 제공함. 만일 이미지 등록을 안할 경우 동물의숲 주민을 기본 이미지로 활용해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅에 배경화면을 깔아 심미적인 요소를 자극해야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,6 +475,668 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>질문을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이해하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최신의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정확한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노력해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체계적이고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비전문가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이해하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉽게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불필요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공하면 안됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 질의응답을 위한 챗봇 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 중에 채팅 히스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 가입자가 이전에 대화한 대화 히스토리(재 로그인 시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 히스토리에 대한 각 새션 분할 (like GP□…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사무소 직원과 같은 신뢰감 있고, 필요한 내용만 알려주는 대화 스타일을 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변을 핵심만 간략하게 서술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 답변 시간이 5초 이내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일, 태블릿, PC 등 다양한 기기에서 최적화된 화면 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시에 이미지 등록 기능을 제공함. 만일 이미지 등록을 안할 경우 동물의숲 주민을 기본 이미지 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>답변</t>
     </r>
     <r>
@@ -587,16 +1213,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>작성하세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
+      <t>작성.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -663,638 +1289,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>정리해햐 함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완전히</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이해하지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>못할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구체적인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>받을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있도록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해야 함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최신의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정확한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>노력해야 함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>답변은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체계적이고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비전문가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이해하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쉽게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>답변을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성해야 함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>답변에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불필요한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공하면 안됨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다국어(한,중,일,영) 사용자 질의에 대해 질의 의도를 분석하고 요청한 언어로 답변을 제공해야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용한 뒤에 사용 피드백을 위한 설문조사가 있어야 함</t>
+      <t>정리해야 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용한 뒤에 사용 피드백을 위한 설문조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다국어(한,중,일,영) 사용자 질의에 대해 질의 의도를 분석하고 요청한 언어로 답변 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1498,31 +1502,18 @@
       </rPr>
       <t>제공</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>해야 함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 없이도 사용이 가능하되 / 로그인을 하게 되면 기존 대화내용을 불러올 수 있게 해야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 시 입력한 지역 정보를 바탕으로 답변을 작성할 수 있어야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비속어, 장난 등 대화본래의 목적에서 벗어난 대화에 대응할 수 있는 기능 제공해야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 없이도 사용이 가능하되 / 로그인을 하게 되면 기존 대화내용 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 입력한 지역 정보를 바탕으로 답변 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비속어, 장난 등 대화본래의 목적에서 벗어난 대화에 대응할 수 있는 기능 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1530,7 +1521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1577,12 +1568,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1623,7 +1608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1631,16 +1616,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A745CE23-1DA1-40C8-AFA1-162B7F83FDD6}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2017,135 +2005,135 @@
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="D7" s="1" t="s">
-        <v>12</v>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="D8" s="1" t="s">
-        <v>13</v>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="16" spans="2:8">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="D10" s="2" t="s">
+    <row r="18" spans="4:7">
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7">
-      <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7">
-      <c r="D19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7">
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7">
-      <c r="D21" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7">
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7">
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="1" t="s">
+    <row r="25" spans="4:7">
+      <c r="D25" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="4:7">
-      <c r="D25" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
